--- a/GameData/Excel/support_module.xlsx
+++ b/GameData/Excel/support_module.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{332AA8E1-962F-4EB7-B6BD-C8EFA38F49CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC0D0E3E-7E8A-4166-B69A-0C1EA220FF37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10944" yWindow="3372" windowWidth="20328" windowHeight="12720" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
+    <workbookView xWindow="17028" yWindow="4872" windowWidth="25740" windowHeight="13572" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
   <sheets>
     <sheet name="support_module" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
   <si>
     <t>int</t>
   </si>
@@ -162,6 +162,9 @@
   <si>
     <t>서포트 모듈 포트레이트</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>img_support_module_temp01</t>
   </si>
 </sst>
 </file>
@@ -587,7 +590,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -702,6 +705,9 @@
       <c r="F4" s="1">
         <v>1</v>
       </c>
+      <c r="G4" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="H4" s="1" t="s">
         <v>24</v>
       </c>
@@ -728,6 +734,9 @@
       <c r="F5" s="1">
         <v>1</v>
       </c>
+      <c r="G5" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="H5" s="1" t="s">
         <v>25</v>
       </c>
@@ -754,6 +763,9 @@
       <c r="F6" s="1">
         <v>10103</v>
       </c>
+      <c r="G6" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="H6" s="1" t="s">
         <v>26</v>
       </c>
@@ -780,6 +792,9 @@
       <c r="F7" s="1">
         <v>1</v>
       </c>
+      <c r="G7" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="H7" s="1" t="s">
         <v>31</v>
       </c>
@@ -806,6 +821,9 @@
       <c r="F8" s="1">
         <v>1</v>
       </c>
+      <c r="G8" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="H8" s="1" t="s">
         <v>31</v>
       </c>
@@ -831,6 +849,9 @@
       </c>
       <c r="F9" s="1">
         <v>1</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>31</v>

--- a/GameData/Excel/support_module.xlsx
+++ b/GameData/Excel/support_module.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC0D0E3E-7E8A-4166-B69A-0C1EA220FF37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D3F0997-0DE6-4C69-B6E3-90721905773F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17028" yWindow="4872" windowWidth="25740" windowHeight="13572" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
+    <workbookView xWindow="17376" yWindow="5220" windowWidth="25740" windowHeight="13572" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
   <sheets>
     <sheet name="support_module" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="42">
   <si>
     <t>int</t>
   </si>
@@ -165,6 +165,19 @@
   </si>
   <si>
     <t>img_support_module_temp01</t>
+  </si>
+  <si>
+    <t>support_module_bg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 근원의 서포트 모듈  BG 리소스</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>img_support_module_bg_temp</t>
   </si>
 </sst>
 </file>
@@ -586,11 +599,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D9A91B-D08A-4539-AB73-212820098BCC}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -601,11 +614,11 @@
     <col min="4" max="4" width="5.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="21.3984375" style="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="1" customWidth="1"/>
-    <col min="7" max="9" width="16.796875" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.69921875" style="1"/>
+    <col min="7" max="10" width="16.796875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -628,13 +641,16 @@
         <v>35</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="26.4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" ht="26.4" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -654,13 +670,16 @@
         <v>36</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="6" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" s="6" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -680,13 +699,16 @@
         <v>2</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="J3" s="6" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" ht="13.8" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" ht="13.8" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>1001</v>
       </c>
@@ -709,13 +731,16 @@
         <v>37</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>1002</v>
       </c>
@@ -738,13 +763,16 @@
         <v>37</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>1003</v>
       </c>
@@ -767,13 +795,16 @@
         <v>37</v>
       </c>
       <c r="H6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>1004</v>
       </c>
@@ -796,13 +827,16 @@
         <v>37</v>
       </c>
       <c r="H7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>1004</v>
       </c>
@@ -825,13 +859,16 @@
         <v>37</v>
       </c>
       <c r="H8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>1004</v>
       </c>
@@ -854,9 +891,12 @@
         <v>37</v>
       </c>
       <c r="H9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>34</v>
       </c>
     </row>

--- a/GameData/Excel/support_module.xlsx
+++ b/GameData/Excel/support_module.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\Go.D.Taekwon\GameData\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\문서\GitHub\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D3F0997-0DE6-4C69-B6E3-90721905773F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2076F323-E464-4EB0-9B6F-9341B4241A99}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17376" yWindow="5220" windowWidth="25740" windowHeight="13572" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
+    <workbookView xWindow="17370" yWindow="5220" windowWidth="25740" windowHeight="13575" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
   <sheets>
     <sheet name="support_module" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="55">
   <si>
     <t>int</t>
   </si>
@@ -150,12 +150,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>increase_product_ap</t>
-  </si>
-  <si>
-    <t>sup_mod_desc_1004_02</t>
-  </si>
-  <si>
     <t>support_module_img</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -164,9 +158,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>img_support_module_temp01</t>
-  </si>
-  <si>
     <t>support_module_bg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -178,6 +169,69 @@
   </si>
   <si>
     <t>img_support_module_bg_temp</t>
+  </si>
+  <si>
+    <t>sup_mod_name_1005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sup_mod_name_1006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sup_mod_desc_1005_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sup_mod_desc_1006_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>샘플_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>샘플_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>img_spell_4</t>
+  </si>
+  <si>
+    <t>img_spell_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>img_spell_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sup_mod_name_1007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sup_mod_name_1008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sup_mod_desc_1007_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sup_mod_desc_1008_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>샘플_7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>샘플_8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>increase_product_value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -303,9 +357,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -343,7 +397,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -449,7 +503,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -591,7 +645,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -599,26 +653,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D9A91B-D08A-4539-AB73-212820098BCC}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.3984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.59765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="5.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.3984375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.375" style="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="1" customWidth="1"/>
-    <col min="7" max="10" width="16.796875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.69921875" style="1"/>
+    <col min="7" max="10" width="16.75" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" s="3" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -638,10 +692,10 @@
         <v>7</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>20</v>
@@ -650,7 +704,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="26.4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" ht="24" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -667,10 +721,10 @@
         <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>22</v>
@@ -679,7 +733,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="6" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" s="6" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -699,7 +753,7 @@
         <v>2</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>2</v>
@@ -708,7 +762,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="13.8" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" ht="12.75" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1001</v>
       </c>
@@ -728,10 +782,10 @@
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>24</v>
@@ -740,7 +794,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1002</v>
       </c>
@@ -754,16 +808,16 @@
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>25</v>
@@ -772,7 +826,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1003</v>
       </c>
@@ -792,10 +846,10 @@
         <v>10103</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>26</v>
@@ -804,7 +858,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1004</v>
       </c>
@@ -818,16 +872,16 @@
         <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>31</v>
@@ -836,50 +890,50 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
+        <v>1005</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="1">
         <v>1004</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1001</v>
-      </c>
       <c r="D8" s="1">
         <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>32</v>
-      </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
+        <v>1006</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="1">
         <v>1004</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1001</v>
-      </c>
       <c r="D9" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>18</v>
@@ -888,16 +942,80 @@
         <v>1</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>1007</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1003</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>1008</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1003</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
